--- a/exports/lsmean_files/LU 6 - LSMeans.xlsx
+++ b/exports/lsmean_files/LU 6 - LSMeans.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t xml:space="preserve">Genotype</t>
   </si>
@@ -42,6 +42,9 @@
   </si>
   <si>
     <t xml:space="preserve">Yield (grams)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sq</t>
   </si>
   <si>
     <t xml:space="preserve">Dilday</t>
@@ -550,22 +553,23 @@
     <col min="15" max="15" width="19.71" hidden="0" customWidth="1"/>
     <col min="16" max="16" width="13.71" hidden="0" customWidth="1"/>
     <col min="17" max="17" width="19.71" hidden="0" customWidth="1"/>
-    <col min="18" max="18" width="11.71" hidden="0" customWidth="1"/>
-    <col min="19" max="19" width="13.71" hidden="0" customWidth="1"/>
-    <col min="20" max="20" width="15.71" hidden="0" customWidth="1"/>
-    <col min="21" max="21" width="7.71" hidden="0" customWidth="1"/>
-    <col min="22" max="22" width="13.71" hidden="0" customWidth="1"/>
-    <col min="23" max="23" width="15.71" hidden="0" customWidth="1"/>
-    <col min="24" max="24" width="19.71" hidden="0" customWidth="1"/>
-    <col min="25" max="25" width="13.71" hidden="0" customWidth="1"/>
-    <col min="26" max="26" width="19.71" hidden="0" customWidth="1"/>
-    <col min="27" max="27" width="11.71" hidden="0" customWidth="1"/>
-    <col min="28" max="28" width="13.71" hidden="0" customWidth="1"/>
+    <col min="18" max="18" width="5.71" hidden="0" customWidth="1"/>
+    <col min="19" max="19" width="11.71" hidden="0" customWidth="1"/>
+    <col min="20" max="20" width="13.71" hidden="0" customWidth="1"/>
+    <col min="21" max="21" width="15.71" hidden="0" customWidth="1"/>
+    <col min="22" max="22" width="7.71" hidden="0" customWidth="1"/>
+    <col min="23" max="23" width="13.71" hidden="0" customWidth="1"/>
+    <col min="24" max="24" width="15.71" hidden="0" customWidth="1"/>
+    <col min="25" max="25" width="19.71" hidden="0" customWidth="1"/>
+    <col min="26" max="26" width="13.71" hidden="0" customWidth="1"/>
+    <col min="27" max="27" width="19.71" hidden="0" customWidth="1"/>
+    <col min="28" max="28" width="11.71" hidden="0" customWidth="1"/>
+    <col min="29" max="29" width="13.71" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2">
       <c r="B2" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -576,7 +580,7 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
@@ -586,10 +590,10 @@
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
-      <c r="T2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="U2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
@@ -597,6 +601,7 @@
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
       <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
@@ -651,42 +656,45 @@
         <v>7</v>
       </c>
       <c r="R3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="S3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="T3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="T3" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="U3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="V3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="V3" s="2" t="s">
+      <c r="W3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="W3" s="2" t="s">
+      <c r="X3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="X3" s="2" t="s">
+      <c r="Y3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="Y3" s="2" t="s">
+      <c r="Z3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="Z3" s="2" t="s">
+      <c r="AA3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AA3" s="2" t="s">
+      <c r="AB3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="AB3" s="2" t="s">
+      <c r="AC3" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>27</v>
@@ -737,42 +745,45 @@
         <v>16.7</v>
       </c>
       <c r="R4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S4" s="1" t="n">
         <v>56.8</v>
       </c>
-      <c r="S4" s="1" t="n">
+      <c r="T4" s="1" t="n">
         <v>2011.1</v>
       </c>
-      <c r="T4" s="1" t="n">
+      <c r="U4" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="U4" s="1" t="n">
+      <c r="V4" s="1" t="n">
         <v>1.1</v>
       </c>
-      <c r="V4" s="1" t="n">
+      <c r="W4" s="1" t="n">
         <v>18.8</v>
       </c>
-      <c r="W4" s="1" t="n">
+      <c r="X4" s="1" t="n">
         <v>23.8</v>
       </c>
-      <c r="X4" s="1" t="n">
+      <c r="Y4" s="1" t="n">
         <v>39.2</v>
       </c>
-      <c r="Y4" s="1" t="n">
+      <c r="Z4" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="Z4" s="1" t="n">
+      <c r="AA4" s="1" t="n">
         <v>15.7</v>
       </c>
-      <c r="AA4" s="1" t="n">
+      <c r="AB4" s="1" t="n">
         <v>56.4</v>
       </c>
-      <c r="AB4" s="1" t="n">
+      <c r="AC4" s="1" t="n">
         <v>1923.1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>29</v>
@@ -823,42 +834,45 @@
         <v>14.7</v>
       </c>
       <c r="R5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S5" s="1" t="n">
         <v>55.9</v>
       </c>
-      <c r="S5" s="1" t="n">
+      <c r="T5" s="1" t="n">
         <v>2197.3</v>
       </c>
-      <c r="T5" s="1" t="n">
+      <c r="U5" s="1" t="n">
         <v>28.5</v>
       </c>
-      <c r="U5" s="1" t="n">
+      <c r="V5" s="1" t="n">
         <v>1.1</v>
       </c>
-      <c r="V5" s="1" t="n">
+      <c r="W5" s="1" t="n">
         <v>18.5</v>
       </c>
-      <c r="W5" s="1" t="n">
+      <c r="X5" s="1" t="n">
         <v>22.8</v>
       </c>
-      <c r="X5" s="1" t="n">
+      <c r="Y5" s="1" t="n">
         <v>40.6</v>
       </c>
-      <c r="Y5" s="1" t="n">
+      <c r="Z5" s="1" t="n">
         <v>63.4</v>
       </c>
-      <c r="Z5" s="1" t="n">
+      <c r="AA5" s="1" t="n">
         <v>14.9</v>
       </c>
-      <c r="AA5" s="1" t="n">
+      <c r="AB5" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="AB5" s="1" t="n">
+      <c r="AC5" s="1" t="n">
         <v>2294.7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>35</v>
@@ -909,42 +923,45 @@
         <v>14.1</v>
       </c>
       <c r="R6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S6" s="1" t="n">
         <v>56.3</v>
       </c>
-      <c r="S6" s="1" t="n">
+      <c r="T6" s="1" t="n">
         <v>2005.2</v>
       </c>
-      <c r="T6" s="1" t="n">
+      <c r="U6" s="1" t="n">
         <v>33.3</v>
       </c>
-      <c r="U6" s="1" t="n">
+      <c r="V6" s="1" t="n">
         <v>1.4</v>
       </c>
-      <c r="V6" s="1" t="n">
+      <c r="W6" s="1" t="n">
         <v>19.5</v>
       </c>
-      <c r="W6" s="1" t="n">
+      <c r="X6" s="1" t="n">
         <v>21.5</v>
       </c>
-      <c r="X6" s="1" t="n">
+      <c r="Y6" s="1" t="n">
         <v>45.1</v>
       </c>
-      <c r="Y6" s="1" t="n">
+      <c r="Z6" s="1" t="n">
         <v>66.6</v>
       </c>
-      <c r="Z6" s="1" t="n">
+      <c r="AA6" s="1" t="n">
         <v>14.1</v>
       </c>
-      <c r="AA6" s="1" t="n">
+      <c r="AB6" s="1" t="n">
         <v>55.9</v>
       </c>
-      <c r="AB6" s="1" t="n">
+      <c r="AC6" s="1" t="n">
         <v>2056.8</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>31.5</v>
@@ -995,42 +1012,45 @@
         <v>12.2</v>
       </c>
       <c r="R7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S7" s="1" t="n">
         <v>56.2</v>
       </c>
-      <c r="S7" s="1" t="n">
+      <c r="T7" s="1" t="n">
         <v>2261.3</v>
       </c>
-      <c r="T7" s="1" t="n">
+      <c r="U7" s="1" t="n">
         <v>31.5</v>
       </c>
-      <c r="U7" s="1" t="n">
+      <c r="V7" s="1" t="n">
         <v>1.1</v>
       </c>
-      <c r="V7" s="1" t="n">
+      <c r="W7" s="1" t="n">
         <v>15.3</v>
       </c>
-      <c r="W7" s="1" t="n">
+      <c r="X7" s="1" t="n">
         <v>23.3</v>
       </c>
-      <c r="X7" s="1" t="n">
+      <c r="Y7" s="1" t="n">
         <v>42.4</v>
       </c>
-      <c r="Y7" s="1" t="n">
+      <c r="Z7" s="1" t="n">
         <v>65.7</v>
       </c>
-      <c r="Z7" s="1" t="n">
+      <c r="AA7" s="1" t="n">
         <v>12.1</v>
       </c>
-      <c r="AA7" s="1" t="n">
+      <c r="AB7" s="1" t="n">
         <v>55.7</v>
       </c>
-      <c r="AB7" s="1" t="n">
+      <c r="AC7" s="1" t="n">
         <v>2148.7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>36.5</v>
@@ -1081,42 +1101,45 @@
         <v>16.4</v>
       </c>
       <c r="R8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S8" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="S8" s="1" t="n">
+      <c r="T8" s="1" t="n">
         <v>2187.4</v>
       </c>
-      <c r="T8" s="1" t="n">
+      <c r="U8" s="1" t="n">
         <v>32.5</v>
       </c>
-      <c r="U8" s="1" t="n">
+      <c r="V8" s="1" t="n">
         <v>1.1</v>
       </c>
-      <c r="V8" s="1" t="n">
+      <c r="W8" s="1" t="n">
         <v>16.8</v>
       </c>
-      <c r="W8" s="1" t="n">
+      <c r="X8" s="1" t="n">
         <v>21.7</v>
       </c>
-      <c r="X8" s="1" t="n">
+      <c r="Y8" s="1" t="n">
         <v>46.1</v>
       </c>
-      <c r="Y8" s="1" t="n">
+      <c r="Z8" s="1" t="n">
         <v>67.8</v>
       </c>
-      <c r="Z8" s="1" t="n">
+      <c r="AA8" s="1" t="n">
         <v>15.9</v>
       </c>
-      <c r="AA8" s="1" t="n">
+      <c r="AB8" s="1" t="n">
         <v>56.5</v>
       </c>
-      <c r="AB8" s="1" t="n">
+      <c r="AC8" s="1" t="n">
         <v>2118.6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>34</v>
@@ -1167,42 +1190,45 @@
         <v>13.5</v>
       </c>
       <c r="R9" s="1" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="S9" s="1" t="n">
         <v>55.7</v>
       </c>
-      <c r="S9" s="1" t="n">
+      <c r="T9" s="1" t="n">
         <v>2057.8</v>
       </c>
-      <c r="T9" s="1" t="n">
+      <c r="U9" s="1" t="n">
         <v>29.3</v>
       </c>
-      <c r="U9" s="1" t="n">
+      <c r="V9" s="1" t="n">
         <v>1.1</v>
       </c>
-      <c r="V9" s="1" t="n">
+      <c r="W9" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="W9" s="1" t="n">
+      <c r="X9" s="1" t="n">
         <v>22.9</v>
       </c>
-      <c r="X9" s="1" t="n">
+      <c r="Y9" s="1" t="n">
         <v>42.8</v>
       </c>
-      <c r="Y9" s="1" t="n">
+      <c r="Z9" s="1" t="n">
         <v>65.6</v>
       </c>
-      <c r="Z9" s="1" t="n">
+      <c r="AA9" s="1" t="n">
         <v>14.1</v>
       </c>
-      <c r="AA9" s="1" t="n">
+      <c r="AB9" s="1" t="n">
         <v>55.2</v>
       </c>
-      <c r="AB9" s="1" t="n">
+      <c r="AC9" s="1" t="n">
         <v>2155.7</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>33</v>
@@ -1253,42 +1279,45 @@
         <v>16.6</v>
       </c>
       <c r="R10" s="1" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="S10" s="1" t="n">
         <v>57.1</v>
       </c>
-      <c r="S10" s="1" t="n">
+      <c r="T10" s="1" t="n">
         <v>2075.6</v>
       </c>
-      <c r="T10" s="1" t="n">
+      <c r="U10" s="1" t="n">
         <v>29.5</v>
       </c>
-      <c r="U10" s="1" t="n">
+      <c r="V10" s="1" t="n">
         <v>1.5</v>
       </c>
-      <c r="V10" s="1" t="n">
+      <c r="W10" s="1" t="n">
         <v>17.3</v>
       </c>
-      <c r="W10" s="1" t="n">
+      <c r="X10" s="1" t="n">
         <v>21.9</v>
       </c>
-      <c r="X10" s="1" t="n">
+      <c r="Y10" s="1" t="n">
         <v>45.7</v>
       </c>
-      <c r="Y10" s="1" t="n">
+      <c r="Z10" s="1" t="n">
         <v>67.6</v>
       </c>
-      <c r="Z10" s="1" t="n">
+      <c r="AA10" s="1" t="n">
         <v>16.5</v>
       </c>
-      <c r="AA10" s="1" t="n">
+      <c r="AB10" s="1" t="n">
         <v>56.9</v>
       </c>
-      <c r="AB10" s="1" t="n">
+      <c r="AC10" s="1" t="n">
         <v>2092.4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>35.5</v>
@@ -1339,42 +1368,45 @@
         <v>16.3</v>
       </c>
       <c r="R11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S11" s="1" t="n">
         <v>55.5</v>
       </c>
-      <c r="S11" s="1" t="n">
+      <c r="T11" s="1" t="n">
         <v>1832.3</v>
       </c>
-      <c r="T11" s="1" t="n">
+      <c r="U11" s="1" t="n">
         <v>42.3</v>
       </c>
-      <c r="U11" s="1" t="n">
+      <c r="V11" s="1" t="n">
         <v>1.5</v>
       </c>
-      <c r="V11" s="1" t="n">
+      <c r="W11" s="1" t="n">
         <v>15.5</v>
       </c>
-      <c r="W11" s="1" t="n">
+      <c r="X11" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="X11" s="1" t="n">
+      <c r="Y11" s="1" t="n">
         <v>47.4</v>
       </c>
-      <c r="Y11" s="1" t="n">
+      <c r="Z11" s="1" t="n">
         <v>69.3</v>
       </c>
-      <c r="Z11" s="1" t="n">
+      <c r="AA11" s="1" t="n">
         <v>16.2</v>
       </c>
-      <c r="AA11" s="1" t="n">
+      <c r="AB11" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="AB11" s="1" t="n">
+      <c r="AC11" s="1" t="n">
         <v>1964.4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>35</v>
@@ -1425,42 +1457,45 @@
         <v>15.4</v>
       </c>
       <c r="R12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S12" s="1" t="n">
         <v>56.7</v>
       </c>
-      <c r="S12" s="1" t="n">
+      <c r="T12" s="1" t="n">
         <v>2244</v>
       </c>
-      <c r="T12" s="1" t="n">
+      <c r="U12" s="1" t="n">
         <v>30.8</v>
       </c>
-      <c r="U12" s="1" t="n">
+      <c r="V12" s="1" t="n">
         <v>1.3</v>
       </c>
-      <c r="V12" s="1" t="n">
+      <c r="W12" s="1" t="n">
         <v>18.8</v>
       </c>
-      <c r="W12" s="1" t="n">
+      <c r="X12" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="X12" s="1" t="n">
+      <c r="Y12" s="1" t="n">
         <v>47.8</v>
       </c>
-      <c r="Y12" s="1" t="n">
+      <c r="Z12" s="1" t="n">
         <v>69.8</v>
       </c>
-      <c r="Z12" s="1" t="n">
+      <c r="AA12" s="1" t="n">
         <v>15.9</v>
       </c>
-      <c r="AA12" s="1" t="n">
+      <c r="AB12" s="1" t="n">
         <v>56.8</v>
       </c>
-      <c r="AB12" s="1" t="n">
+      <c r="AC12" s="1" t="n">
         <v>2192.7</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>32</v>
@@ -1511,42 +1546,45 @@
         <v>14.7</v>
       </c>
       <c r="R13" s="1" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="S13" s="1" t="n">
         <v>55.6</v>
       </c>
-      <c r="S13" s="1" t="n">
+      <c r="T13" s="1" t="n">
         <v>2234.6</v>
       </c>
-      <c r="T13" s="1" t="n">
+      <c r="U13" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="U13" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="V13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="W13" s="1" t="n">
         <v>15.5</v>
       </c>
-      <c r="W13" s="1" t="n">
+      <c r="X13" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="X13" s="1" t="n">
+      <c r="Y13" s="1" t="n">
         <v>44.4</v>
       </c>
-      <c r="Y13" s="1" t="n">
+      <c r="Z13" s="1" t="n">
         <v>67.4</v>
       </c>
-      <c r="Z13" s="1" t="n">
+      <c r="AA13" s="1" t="n">
         <v>14.6</v>
       </c>
-      <c r="AA13" s="1" t="n">
+      <c r="AB13" s="1" t="n">
         <v>55.3</v>
       </c>
-      <c r="AB13" s="1" t="n">
+      <c r="AC13" s="1" t="n">
         <v>1970.7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>36.5</v>
@@ -1597,42 +1635,45 @@
         <v>13.5</v>
       </c>
       <c r="R14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S14" s="1" t="n">
         <v>58.6</v>
       </c>
-      <c r="S14" s="1" t="n">
+      <c r="T14" s="1" t="n">
         <v>1842.4</v>
       </c>
-      <c r="T14" s="1" t="n">
+      <c r="U14" s="1" t="n">
         <v>34.5</v>
       </c>
-      <c r="U14" s="1" t="n">
+      <c r="V14" s="1" t="n">
         <v>1.4</v>
       </c>
-      <c r="V14" s="1" t="n">
+      <c r="W14" s="1" t="n">
         <v>18.5</v>
       </c>
-      <c r="W14" s="1" t="n">
+      <c r="X14" s="1" t="n">
         <v>21.6</v>
       </c>
-      <c r="X14" s="1" t="n">
+      <c r="Y14" s="1" t="n">
         <v>45.7</v>
       </c>
-      <c r="Y14" s="1" t="n">
+      <c r="Z14" s="1" t="n">
         <v>67.3</v>
       </c>
-      <c r="Z14" s="1" t="n">
+      <c r="AA14" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="AA14" s="1" t="n">
+      <c r="AB14" s="1" t="n">
         <v>58.7</v>
       </c>
-      <c r="AB14" s="1" t="n">
+      <c r="AC14" s="1" t="n">
         <v>2029.4</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>31</v>
@@ -1683,42 +1724,45 @@
         <v>14.2</v>
       </c>
       <c r="R15" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S15" s="1" t="n">
         <v>58.3</v>
       </c>
-      <c r="S15" s="1" t="n">
+      <c r="T15" s="1" t="n">
         <v>1908.1</v>
       </c>
-      <c r="T15" s="1" t="n">
+      <c r="U15" s="1" t="n">
         <v>30.5</v>
       </c>
-      <c r="U15" s="1" t="n">
+      <c r="V15" s="1" t="n">
         <v>1.1</v>
       </c>
-      <c r="V15" s="1" t="n">
+      <c r="W15" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="W15" s="1" t="n">
+      <c r="X15" s="1" t="n">
         <v>22.4</v>
       </c>
-      <c r="X15" s="1" t="n">
+      <c r="Y15" s="1" t="n">
         <v>46.2</v>
       </c>
-      <c r="Y15" s="1" t="n">
+      <c r="Z15" s="1" t="n">
         <v>68.6</v>
       </c>
-      <c r="Z15" s="1" t="n">
+      <c r="AA15" s="1" t="n">
         <v>13.9</v>
       </c>
-      <c r="AA15" s="1" t="n">
+      <c r="AB15" s="1" t="n">
         <v>57.7</v>
       </c>
-      <c r="AB15" s="1" t="n">
+      <c r="AC15" s="1" t="n">
         <v>1875.8</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>28.5</v>
@@ -1769,42 +1813,45 @@
         <v>14.6</v>
       </c>
       <c r="R16" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S16" s="1" t="n">
         <v>57.8</v>
       </c>
-      <c r="S16" s="1" t="n">
+      <c r="T16" s="1" t="n">
         <v>2108.7</v>
       </c>
-      <c r="T16" s="1" t="n">
+      <c r="U16" s="1" t="n">
         <v>26.5</v>
       </c>
-      <c r="U16" s="1" t="n">
+      <c r="V16" s="1" t="n">
         <v>1.3</v>
       </c>
-      <c r="V16" s="1" t="n">
+      <c r="W16" s="1" t="n">
         <v>15.5</v>
       </c>
-      <c r="W16" s="1" t="n">
+      <c r="X16" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="X16" s="1" t="n">
+      <c r="Y16" s="1" t="n">
         <v>42.7</v>
       </c>
-      <c r="Y16" s="1" t="n">
+      <c r="Z16" s="1" t="n">
         <v>66.7</v>
       </c>
-      <c r="Z16" s="1" t="n">
+      <c r="AA16" s="1" t="n">
         <v>14.2</v>
       </c>
-      <c r="AA16" s="1" t="n">
+      <c r="AB16" s="1" t="n">
         <v>54.2</v>
       </c>
-      <c r="AB16" s="1" t="n">
+      <c r="AC16" s="1" t="n">
         <v>1725.6</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B17" s="1" t="n">
         <v>31</v>
@@ -1855,42 +1902,45 @@
         <v>11.2</v>
       </c>
       <c r="R17" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S17" s="1" t="n">
         <v>59.5</v>
       </c>
-      <c r="S17" s="1" t="n">
+      <c r="T17" s="1" t="n">
         <v>1603.6</v>
       </c>
-      <c r="T17" s="1" t="n">
+      <c r="U17" s="1" t="n">
         <v>28.8</v>
       </c>
-      <c r="U17" s="1" t="n">
+      <c r="V17" s="1" t="n">
         <v>1.1</v>
       </c>
-      <c r="V17" s="1" t="n">
+      <c r="W17" s="1" t="n">
         <v>20.5</v>
       </c>
-      <c r="W17" s="1" t="n">
+      <c r="X17" s="1" t="n">
         <v>22.2</v>
       </c>
-      <c r="X17" s="1" t="n">
+      <c r="Y17" s="1" t="n">
         <v>42.9</v>
       </c>
-      <c r="Y17" s="1" t="n">
+      <c r="Z17" s="1" t="n">
         <v>65.2</v>
       </c>
-      <c r="Z17" s="1" t="n">
+      <c r="AA17" s="1" t="n">
         <v>11.4</v>
       </c>
-      <c r="AA17" s="1" t="n">
+      <c r="AB17" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="AB17" s="1" t="n">
+      <c r="AC17" s="1" t="n">
         <v>1759.6</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B18" s="1" t="n">
         <v>36</v>
@@ -1941,42 +1991,45 @@
         <v>14.3</v>
       </c>
       <c r="R18" s="1" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="S18" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="S18" s="1" t="n">
+      <c r="T18" s="1" t="n">
         <v>1856.4</v>
       </c>
-      <c r="T18" s="1" t="n">
+      <c r="U18" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="U18" s="1" t="n">
+      <c r="V18" s="1" t="n">
         <v>1.6</v>
       </c>
-      <c r="V18" s="1" t="n">
+      <c r="W18" s="1" t="n">
         <v>22.3</v>
       </c>
-      <c r="W18" s="1" t="n">
+      <c r="X18" s="1" t="n">
         <v>23.3</v>
       </c>
-      <c r="X18" s="1" t="n">
+      <c r="Y18" s="1" t="n">
         <v>41.6</v>
       </c>
-      <c r="Y18" s="1" t="n">
+      <c r="Z18" s="1" t="n">
         <v>64.9</v>
       </c>
-      <c r="Z18" s="1" t="n">
+      <c r="AA18" s="1" t="n">
         <v>14.2</v>
       </c>
-      <c r="AA18" s="1" t="n">
+      <c r="AB18" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="AB18" s="1" t="n">
+      <c r="AC18" s="1" t="n">
         <v>2111.1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B19" s="1" t="n">
         <v>31</v>
@@ -2027,42 +2080,45 @@
         <v>14.8</v>
       </c>
       <c r="R19" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S19" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="S19" s="1" t="n">
+      <c r="T19" s="1" t="n">
         <v>2358.1</v>
       </c>
-      <c r="T19" s="1" t="n">
+      <c r="U19" s="1" t="n">
         <v>29.8</v>
       </c>
-      <c r="U19" s="1" t="n">
+      <c r="V19" s="1" t="n">
         <v>1.1</v>
       </c>
-      <c r="V19" s="1" t="n">
+      <c r="W19" s="1" t="n">
         <v>15.5</v>
       </c>
-      <c r="W19" s="1" t="n">
+      <c r="X19" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="X19" s="1" t="n">
+      <c r="Y19" s="1" t="n">
         <v>39.9</v>
       </c>
-      <c r="Y19" s="1" t="n">
+      <c r="Z19" s="1" t="n">
         <v>63.9</v>
       </c>
-      <c r="Z19" s="1" t="n">
+      <c r="AA19" s="1" t="n">
         <v>15.2</v>
       </c>
-      <c r="AA19" s="1" t="n">
+      <c r="AB19" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="AB19" s="1" t="n">
+      <c r="AC19" s="1" t="n">
         <v>2323.3</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B20" s="1" t="n">
         <v>39</v>
@@ -2113,42 +2169,45 @@
         <v>18.2</v>
       </c>
       <c r="R20" s="1" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="S20" s="1" t="n">
         <v>56.5</v>
       </c>
-      <c r="S20" s="1" t="n">
+      <c r="T20" s="1" t="n">
         <v>1970.3</v>
       </c>
-      <c r="T20" s="1" t="n">
+      <c r="U20" s="1" t="n">
         <v>32.5</v>
       </c>
-      <c r="U20" s="1" t="n">
+      <c r="V20" s="1" t="n">
         <v>1.8</v>
       </c>
-      <c r="V20" s="1" t="n">
+      <c r="W20" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="W20" s="1" t="n">
+      <c r="X20" s="1" t="n">
         <v>24.2</v>
       </c>
-      <c r="X20" s="1" t="n">
+      <c r="Y20" s="1" t="n">
         <v>42.8</v>
       </c>
-      <c r="Y20" s="1" t="n">
+      <c r="Z20" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="Z20" s="1" t="n">
+      <c r="AA20" s="1" t="n">
         <v>18.5</v>
       </c>
-      <c r="AA20" s="1" t="n">
+      <c r="AB20" s="1" t="n">
         <v>56.1</v>
       </c>
-      <c r="AB20" s="1" t="n">
+      <c r="AC20" s="1" t="n">
         <v>2060.1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B21" s="1" t="n">
         <v>36</v>
@@ -2199,42 +2258,45 @@
         <v>16.3</v>
       </c>
       <c r="R21" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S21" s="1" t="n">
         <v>57.4</v>
       </c>
-      <c r="S21" s="1" t="n">
+      <c r="T21" s="1" t="n">
         <v>2011.6</v>
       </c>
-      <c r="T21" s="1" t="n">
+      <c r="U21" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="U21" s="1" t="n">
+      <c r="V21" s="1" t="n">
         <v>1.3</v>
       </c>
-      <c r="V21" s="1" t="n">
+      <c r="W21" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="W21" s="1" t="n">
+      <c r="X21" s="1" t="n">
         <v>24.6</v>
       </c>
-      <c r="X21" s="1" t="n">
+      <c r="Y21" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="Y21" s="1" t="n">
+      <c r="Z21" s="1" t="n">
         <v>66.6</v>
       </c>
-      <c r="Z21" s="1" t="n">
+      <c r="AA21" s="1" t="n">
         <v>16.5</v>
       </c>
-      <c r="AA21" s="1" t="n">
+      <c r="AB21" s="1" t="n">
         <v>56.6</v>
       </c>
-      <c r="AB21" s="1" t="n">
+      <c r="AC21" s="1" t="n">
         <v>2142.2</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B22" s="1" t="n">
         <v>34.5</v>
@@ -2285,42 +2347,45 @@
         <v>14.3</v>
       </c>
       <c r="R22" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S22" s="1" t="n">
         <v>55.2</v>
       </c>
-      <c r="S22" s="1" t="n">
+      <c r="T22" s="1" t="n">
         <v>2116.1</v>
       </c>
-      <c r="T22" s="1" t="n">
+      <c r="U22" s="1" t="n">
         <v>30.5</v>
       </c>
-      <c r="U22" s="1" t="n">
+      <c r="V22" s="1" t="n">
         <v>1.3</v>
       </c>
-      <c r="V22" s="1" t="n">
+      <c r="W22" s="1" t="n">
         <v>16.8</v>
       </c>
-      <c r="W22" s="1" t="n">
+      <c r="X22" s="1" t="n">
         <v>24.3</v>
       </c>
-      <c r="X22" s="1" t="n">
+      <c r="Y22" s="1" t="n">
         <v>42.1</v>
       </c>
-      <c r="Y22" s="1" t="n">
+      <c r="Z22" s="1" t="n">
         <v>66.4</v>
       </c>
-      <c r="Z22" s="1" t="n">
+      <c r="AA22" s="1" t="n">
         <v>14.3</v>
       </c>
-      <c r="AA22" s="1" t="n">
+      <c r="AB22" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="AB22" s="1" t="n">
+      <c r="AC22" s="1" t="n">
         <v>1949.3</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B23" s="1" t="n">
         <v>37.5</v>
@@ -2371,42 +2436,45 @@
         <v>13.5</v>
       </c>
       <c r="R23" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S23" s="1" t="n">
         <v>57.8</v>
       </c>
-      <c r="S23" s="1" t="n">
+      <c r="T23" s="1" t="n">
         <v>2059.7</v>
       </c>
-      <c r="T23" s="1" t="n">
+      <c r="U23" s="1" t="n">
         <v>35.8</v>
       </c>
-      <c r="U23" s="1" t="n">
+      <c r="V23" s="1" t="n">
         <v>1.4</v>
       </c>
-      <c r="V23" s="1" t="n">
+      <c r="W23" s="1" t="n">
         <v>19.8</v>
       </c>
-      <c r="W23" s="1" t="n">
+      <c r="X23" s="1" t="n">
         <v>21.9</v>
       </c>
-      <c r="X23" s="1" t="n">
+      <c r="Y23" s="1" t="n">
         <v>44.1</v>
       </c>
-      <c r="Y23" s="1" t="n">
+      <c r="Z23" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="Z23" s="1" t="n">
+      <c r="AA23" s="1" t="n">
         <v>13.8</v>
       </c>
-      <c r="AA23" s="1" t="n">
+      <c r="AB23" s="1" t="n">
         <v>57.4</v>
       </c>
-      <c r="AB23" s="1" t="n">
+      <c r="AC23" s="1" t="n">
         <v>2113.1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B24" s="1" t="n">
         <v>37</v>
@@ -2457,42 +2525,45 @@
         <v>13.9</v>
       </c>
       <c r="R24" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S24" s="1" t="n">
         <v>56.4</v>
       </c>
-      <c r="S24" s="1" t="n">
+      <c r="T24" s="1" t="n">
         <v>1662.2</v>
       </c>
-      <c r="T24" s="1" t="n">
+      <c r="U24" s="1" t="n">
         <v>34.8</v>
       </c>
-      <c r="U24" s="1" t="n">
+      <c r="V24" s="1" t="n">
         <v>1.8</v>
       </c>
-      <c r="V24" s="1" t="n">
+      <c r="W24" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="W24" s="1" t="n">
+      <c r="X24" s="1" t="n">
         <v>24.3</v>
       </c>
-      <c r="X24" s="1" t="n">
+      <c r="Y24" s="1" t="n">
         <v>38.8</v>
       </c>
-      <c r="Y24" s="1" t="n">
+      <c r="Z24" s="1" t="n">
         <v>63.1</v>
       </c>
-      <c r="Z24" s="1" t="n">
+      <c r="AA24" s="1" t="n">
         <v>14.3</v>
       </c>
-      <c r="AA24" s="1" t="n">
+      <c r="AB24" s="1" t="n">
         <v>56.3</v>
       </c>
-      <c r="AB24" s="1" t="n">
+      <c r="AC24" s="1" t="n">
         <v>1958.2</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B25" s="1" t="n">
         <v>37.5</v>
@@ -2543,42 +2614,45 @@
         <v>13.5</v>
       </c>
       <c r="R25" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S25" s="1" t="n">
         <v>55.6</v>
       </c>
-      <c r="S25" s="1" t="n">
+      <c r="T25" s="1" t="n">
         <v>1651.4</v>
       </c>
-      <c r="T25" s="1" t="n">
+      <c r="U25" s="1" t="n">
         <v>39.3</v>
       </c>
-      <c r="U25" s="1" t="n">
+      <c r="V25" s="1" t="n">
         <v>1.8</v>
       </c>
-      <c r="V25" s="1" t="n">
+      <c r="W25" s="1" t="n">
         <v>28.3</v>
       </c>
-      <c r="W25" s="1" t="n">
+      <c r="X25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="X25" s="1" t="n">
+      <c r="Y25" s="1" t="n">
         <v>42.4</v>
       </c>
-      <c r="Y25" s="1" t="n">
+      <c r="Z25" s="1" t="n">
         <v>65.4</v>
       </c>
-      <c r="Z25" s="1" t="n">
+      <c r="AA25" s="1" t="n">
         <v>13.6</v>
       </c>
-      <c r="AA25" s="1" t="n">
+      <c r="AB25" s="1" t="n">
         <v>55.8</v>
       </c>
-      <c r="AB25" s="1" t="n">
+      <c r="AC25" s="1" t="n">
         <v>1876.4</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B26" s="1" t="n">
         <v>38</v>
@@ -2629,42 +2703,45 @@
         <v>13.2</v>
       </c>
       <c r="R26" s="1" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="S26" s="1" t="n">
         <v>55.8</v>
       </c>
-      <c r="S26" s="1" t="n">
+      <c r="T26" s="1" t="n">
         <v>1823.2</v>
       </c>
-      <c r="T26" s="1" t="n">
+      <c r="U26" s="1" t="n">
         <v>36.8</v>
       </c>
-      <c r="U26" s="1" t="n">
+      <c r="V26" s="1" t="n">
         <v>1.5</v>
       </c>
-      <c r="V26" s="1" t="n">
+      <c r="W26" s="1" t="n">
         <v>29.3</v>
       </c>
-      <c r="W26" s="1" t="n">
+      <c r="X26" s="1" t="n">
         <v>24.9</v>
       </c>
-      <c r="X26" s="1" t="n">
+      <c r="Y26" s="1" t="n">
         <v>41.6</v>
       </c>
-      <c r="Y26" s="1" t="n">
+      <c r="Z26" s="1" t="n">
         <v>66.4</v>
       </c>
-      <c r="Z26" s="1" t="n">
+      <c r="AA26" s="1" t="n">
         <v>13.6</v>
       </c>
-      <c r="AA26" s="1" t="n">
+      <c r="AB26" s="1" t="n">
         <v>55.9</v>
       </c>
-      <c r="AB26" s="1" t="n">
+      <c r="AC26" s="1" t="n">
         <v>2027.5</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B27" s="1" t="n">
         <v>39</v>
@@ -2715,42 +2792,45 @@
         <v>13.8</v>
       </c>
       <c r="R27" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S27" s="1" t="n">
         <v>58.2</v>
       </c>
-      <c r="S27" s="1" t="n">
+      <c r="T27" s="1" t="n">
         <v>1818.3</v>
       </c>
-      <c r="T27" s="1" t="n">
+      <c r="U27" s="1" t="n">
         <v>39.3</v>
       </c>
-      <c r="U27" s="1" t="n">
+      <c r="V27" s="1" t="n">
         <v>2.3</v>
       </c>
-      <c r="V27" s="1" t="n">
+      <c r="W27" s="1" t="n">
         <v>25.5</v>
       </c>
-      <c r="W27" s="1" t="n">
+      <c r="X27" s="1" t="n">
         <v>23.2</v>
       </c>
-      <c r="X27" s="1" t="n">
+      <c r="Y27" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="Y27" s="1" t="n">
+      <c r="Z27" s="1" t="n">
         <v>66.2</v>
       </c>
-      <c r="Z27" s="1" t="n">
+      <c r="AA27" s="1" t="n">
         <v>14.1</v>
       </c>
-      <c r="AA27" s="1" t="n">
+      <c r="AB27" s="1" t="n">
         <v>58.1</v>
       </c>
-      <c r="AB27" s="1" t="n">
+      <c r="AC27" s="1" t="n">
         <v>1953.4</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B28" s="1" t="n">
         <v>43</v>
@@ -2801,42 +2881,45 @@
         <v>14</v>
       </c>
       <c r="R28" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S28" s="1" t="n">
         <v>57.9</v>
       </c>
-      <c r="S28" s="1" t="n">
+      <c r="T28" s="1" t="n">
         <v>2098.4</v>
       </c>
-      <c r="T28" s="1" t="n">
+      <c r="U28" s="1" t="n">
         <v>43.5</v>
       </c>
-      <c r="U28" s="1" t="n">
+      <c r="V28" s="1" t="n">
         <v>1.8</v>
       </c>
-      <c r="V28" s="1" t="n">
+      <c r="W28" s="1" t="n">
         <v>24.8</v>
       </c>
-      <c r="W28" s="1" t="n">
+      <c r="X28" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="X28" s="1" t="n">
+      <c r="Y28" s="1" t="n">
         <v>43.3</v>
       </c>
-      <c r="Y28" s="1" t="n">
+      <c r="Z28" s="1" t="n">
         <v>65.3</v>
       </c>
-      <c r="Z28" s="1" t="n">
+      <c r="AA28" s="1" t="n">
         <v>14.1</v>
       </c>
-      <c r="AA28" s="1" t="n">
+      <c r="AB28" s="1" t="n">
         <v>57.7</v>
       </c>
-      <c r="AB28" s="1" t="n">
+      <c r="AC28" s="1" t="n">
         <v>2274</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B29" s="1" t="n">
         <v>37.5</v>
@@ -2887,42 +2970,45 @@
         <v>15.2</v>
       </c>
       <c r="R29" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S29" s="1" t="n">
         <v>57.3</v>
       </c>
-      <c r="S29" s="1" t="n">
+      <c r="T29" s="1" t="n">
         <v>1922.5</v>
       </c>
-      <c r="T29" s="1" t="n">
+      <c r="U29" s="1" t="n">
         <v>40.5</v>
       </c>
-      <c r="U29" s="1" t="n">
+      <c r="V29" s="1" t="n">
         <v>1.6</v>
       </c>
-      <c r="V29" s="1" t="n">
+      <c r="W29" s="1" t="n">
         <v>27.3</v>
       </c>
-      <c r="W29" s="1" t="n">
+      <c r="X29" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="X29" s="1" t="n">
+      <c r="Y29" s="1" t="n">
         <v>40.9</v>
       </c>
-      <c r="Y29" s="1" t="n">
+      <c r="Z29" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="Z29" s="1" t="n">
+      <c r="AA29" s="1" t="n">
         <v>14.1</v>
       </c>
-      <c r="AA29" s="1" t="n">
+      <c r="AB29" s="1" t="n">
         <v>57.9</v>
       </c>
-      <c r="AB29" s="1" t="n">
+      <c r="AC29" s="1" t="n">
         <v>2024</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B30" s="1" t="n">
         <v>41</v>
@@ -2973,42 +3059,45 @@
         <v>14.2</v>
       </c>
       <c r="R30" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S30" s="1" t="n">
         <v>55.6</v>
       </c>
-      <c r="S30" s="1" t="n">
+      <c r="T30" s="1" t="n">
         <v>1745.9</v>
       </c>
-      <c r="T30" s="1" t="n">
+      <c r="U30" s="1" t="n">
         <v>38.3</v>
       </c>
-      <c r="U30" s="1" t="n">
+      <c r="V30" s="1" t="n">
         <v>1.6</v>
       </c>
-      <c r="V30" s="1" t="n">
+      <c r="W30" s="1" t="n">
         <v>28.5</v>
       </c>
-      <c r="W30" s="1" t="n">
+      <c r="X30" s="1" t="n">
         <v>22.9</v>
       </c>
-      <c r="X30" s="1" t="n">
+      <c r="Y30" s="1" t="n">
         <v>43.6</v>
       </c>
-      <c r="Y30" s="1" t="n">
+      <c r="Z30" s="1" t="n">
         <v>66.5</v>
       </c>
-      <c r="Z30" s="1" t="n">
+      <c r="AA30" s="1" t="n">
         <v>14.6</v>
       </c>
-      <c r="AA30" s="1" t="n">
+      <c r="AB30" s="1" t="n">
         <v>55.5</v>
       </c>
-      <c r="AB30" s="1" t="n">
+      <c r="AC30" s="1" t="n">
         <v>2063.8</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B31" s="1" t="n">
         <v>32.5</v>
@@ -3059,42 +3148,45 @@
         <v>13.9</v>
       </c>
       <c r="R31" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S31" s="1" t="n">
         <v>55.8</v>
       </c>
-      <c r="S31" s="1" t="n">
+      <c r="T31" s="1" t="n">
         <v>1503.5</v>
       </c>
-      <c r="T31" s="1" t="n">
+      <c r="U31" s="1" t="n">
         <v>36.3</v>
       </c>
-      <c r="U31" s="1" t="n">
+      <c r="V31" s="1" t="n">
         <v>2.1</v>
       </c>
-      <c r="V31" s="1" t="n">
+      <c r="W31" s="1" t="n">
         <v>25.8</v>
       </c>
-      <c r="W31" s="1" t="n">
+      <c r="X31" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="X31" s="1" t="n">
+      <c r="Y31" s="1" t="n">
         <v>43.3</v>
       </c>
-      <c r="Y31" s="1" t="n">
+      <c r="Z31" s="1" t="n">
         <v>66.3</v>
       </c>
-      <c r="Z31" s="1" t="n">
+      <c r="AA31" s="1" t="n">
         <v>13.7</v>
       </c>
-      <c r="AA31" s="1" t="n">
+      <c r="AB31" s="1" t="n">
         <v>56.4</v>
       </c>
-      <c r="AB31" s="1" t="n">
+      <c r="AC31" s="1" t="n">
         <v>1784.9</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B32" s="1" t="n">
         <v>34</v>
@@ -3145,42 +3237,45 @@
         <v>12.6</v>
       </c>
       <c r="R32" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S32" s="1" t="n">
         <v>56.3</v>
       </c>
-      <c r="S32" s="1" t="n">
+      <c r="T32" s="1" t="n">
         <v>2092.4</v>
       </c>
-      <c r="T32" s="1" t="n">
+      <c r="U32" s="1" t="n">
         <v>28.8</v>
       </c>
-      <c r="U32" s="1" t="n">
+      <c r="V32" s="1" t="n">
         <v>1.3</v>
       </c>
-      <c r="V32" s="1" t="n">
+      <c r="W32" s="1" t="n">
         <v>15.5</v>
       </c>
-      <c r="W32" s="1" t="n">
+      <c r="X32" s="1" t="n">
         <v>22.7</v>
       </c>
-      <c r="X32" s="1" t="n">
+      <c r="Y32" s="1" t="n">
         <v>45.2</v>
       </c>
-      <c r="Y32" s="1" t="n">
+      <c r="Z32" s="1" t="n">
         <v>67.9</v>
       </c>
-      <c r="Z32" s="1" t="n">
+      <c r="AA32" s="1" t="n">
         <v>13.4</v>
       </c>
-      <c r="AA32" s="1" t="n">
+      <c r="AB32" s="1" t="n">
         <v>55.7</v>
       </c>
-      <c r="AB32" s="1" t="n">
+      <c r="AC32" s="1" t="n">
         <v>2107.1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B33" s="1" t="n">
         <v>30.5</v>
@@ -3231,42 +3326,45 @@
         <v>16.2</v>
       </c>
       <c r="R33" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S33" s="1" t="n">
         <v>56.1</v>
       </c>
-      <c r="S33" s="1" t="n">
+      <c r="T33" s="1" t="n">
         <v>1837.8</v>
       </c>
-      <c r="T33" s="1" t="n">
+      <c r="U33" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="U33" s="1" t="n">
+      <c r="V33" s="1" t="n">
         <v>1.1</v>
       </c>
-      <c r="V33" s="1" t="n">
+      <c r="W33" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="W33" s="1" t="n">
+      <c r="X33" s="1" t="n">
         <v>23.1</v>
       </c>
-      <c r="X33" s="1" t="n">
+      <c r="Y33" s="1" t="n">
         <v>43.4</v>
       </c>
-      <c r="Y33" s="1" t="n">
+      <c r="Z33" s="1" t="n">
         <v>66.5</v>
       </c>
-      <c r="Z33" s="1" t="n">
+      <c r="AA33" s="1" t="n">
         <v>15.4</v>
       </c>
-      <c r="AA33" s="1" t="n">
+      <c r="AB33" s="1" t="n">
         <v>56.3</v>
       </c>
-      <c r="AB33" s="1" t="n">
+      <c r="AC33" s="1" t="n">
         <v>1890.3</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B34" s="1" t="n">
         <v>38</v>
@@ -3317,42 +3415,45 @@
         <v>15.6</v>
       </c>
       <c r="R34" s="1" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="S34" s="1" t="n">
         <v>55.9</v>
       </c>
-      <c r="S34" s="1" t="n">
+      <c r="T34" s="1" t="n">
         <v>2000.9</v>
       </c>
-      <c r="T34" s="1" t="n">
+      <c r="U34" s="1" t="n">
         <v>32.3</v>
       </c>
-      <c r="U34" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="V34" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="W34" s="1" t="n">
         <v>19.8</v>
       </c>
-      <c r="W34" s="1" t="n">
+      <c r="X34" s="1" t="n">
         <v>21.9</v>
       </c>
-      <c r="X34" s="1" t="n">
+      <c r="Y34" s="1" t="n">
         <v>44.3</v>
       </c>
-      <c r="Y34" s="1" t="n">
+      <c r="Z34" s="1" t="n">
         <v>66.3</v>
       </c>
-      <c r="Z34" s="1" t="n">
+      <c r="AA34" s="1" t="n">
         <v>16.1</v>
       </c>
-      <c r="AA34" s="1" t="n">
+      <c r="AB34" s="1" t="n">
         <v>55.5</v>
       </c>
-      <c r="AB34" s="1" t="n">
+      <c r="AC34" s="1" t="n">
         <v>2184</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B35" s="1" t="n">
         <v>33.5</v>
@@ -3403,42 +3504,45 @@
         <v>17.9</v>
       </c>
       <c r="R35" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S35" s="1" t="n">
         <v>56.2</v>
       </c>
-      <c r="S35" s="1" t="n">
+      <c r="T35" s="1" t="n">
         <v>2188.2</v>
       </c>
-      <c r="T35" s="1" t="n">
+      <c r="U35" s="1" t="n">
         <v>32.8</v>
       </c>
-      <c r="U35" s="1" t="n">
+      <c r="V35" s="1" t="n">
         <v>1.3</v>
       </c>
-      <c r="V35" s="1" t="n">
+      <c r="W35" s="1" t="n">
         <v>18.3</v>
       </c>
-      <c r="W35" s="1" t="n">
+      <c r="X35" s="1" t="n">
         <v>23.6</v>
       </c>
-      <c r="X35" s="1" t="n">
+      <c r="Y35" s="1" t="n">
         <v>43.5</v>
       </c>
-      <c r="Y35" s="1" t="n">
+      <c r="Z35" s="1" t="n">
         <v>67.1</v>
       </c>
-      <c r="Z35" s="1" t="n">
+      <c r="AA35" s="1" t="n">
         <v>17.4</v>
       </c>
-      <c r="AA35" s="1" t="n">
+      <c r="AB35" s="1" t="n">
         <v>55.5</v>
       </c>
-      <c r="AB35" s="1" t="n">
+      <c r="AC35" s="1" t="n">
         <v>2128.7</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B36" s="1" t="n">
         <v>29.5</v>
@@ -3489,42 +3593,45 @@
         <v>14.9</v>
       </c>
       <c r="R36" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S36" s="1" t="n">
         <v>57.1</v>
       </c>
-      <c r="S36" s="1" t="n">
+      <c r="T36" s="1" t="n">
         <v>2142.7</v>
       </c>
-      <c r="T36" s="1" t="n">
+      <c r="U36" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="U36" s="1" t="n">
+      <c r="V36" s="1" t="n">
         <v>1.1</v>
       </c>
-      <c r="V36" s="1" t="n">
+      <c r="W36" s="1" t="n">
         <v>17.3</v>
       </c>
-      <c r="W36" s="1" t="n">
+      <c r="X36" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="X36" s="1" t="n">
+      <c r="Y36" s="1" t="n">
         <v>43.8</v>
       </c>
-      <c r="Y36" s="1" t="n">
+      <c r="Z36" s="1" t="n">
         <v>66.7</v>
       </c>
-      <c r="Z36" s="1" t="n">
+      <c r="AA36" s="1" t="n">
         <v>14.7</v>
       </c>
-      <c r="AA36" s="1" t="n">
+      <c r="AB36" s="1" t="n">
         <v>56.4</v>
       </c>
-      <c r="AB36" s="1" t="n">
+      <c r="AC36" s="1" t="n">
         <v>1894.7</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B37" s="1" t="n">
         <v>34.5</v>
@@ -3575,42 +3682,45 @@
         <v>13.7</v>
       </c>
       <c r="R37" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S37" s="1" t="n">
         <v>57.6</v>
       </c>
-      <c r="S37" s="1" t="n">
+      <c r="T37" s="1" t="n">
         <v>1690.8</v>
       </c>
-      <c r="T37" s="1" t="n">
+      <c r="U37" s="1" t="n">
         <v>39.3</v>
       </c>
-      <c r="U37" s="1" t="n">
+      <c r="V37" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="V37" s="1" t="n">
+      <c r="W37" s="1" t="n">
         <v>24.3</v>
       </c>
-      <c r="W37" s="1" t="n">
+      <c r="X37" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="X37" s="1" t="n">
+      <c r="Y37" s="1" t="n">
         <v>41.4</v>
       </c>
-      <c r="Y37" s="1" t="n">
+      <c r="Z37" s="1" t="n">
         <v>65.4</v>
       </c>
-      <c r="Z37" s="1" t="n">
+      <c r="AA37" s="1" t="n">
         <v>13.7</v>
       </c>
-      <c r="AA37" s="1" t="n">
+      <c r="AB37" s="1" t="n">
         <v>57.5</v>
       </c>
-      <c r="AB37" s="1" t="n">
+      <c r="AC37" s="1" t="n">
         <v>1728.2</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B38" s="1" t="n">
         <v>38.5</v>
@@ -3661,42 +3771,45 @@
         <v>13.3</v>
       </c>
       <c r="R38" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S38" s="1" t="n">
         <v>56.2</v>
       </c>
-      <c r="S38" s="1" t="n">
+      <c r="T38" s="1" t="n">
         <v>1967.2</v>
       </c>
-      <c r="T38" s="1" t="n">
+      <c r="U38" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="U38" s="1" t="n">
+      <c r="V38" s="1" t="n">
         <v>1.3</v>
       </c>
-      <c r="V38" s="1" t="n">
+      <c r="W38" s="1" t="n">
         <v>19.8</v>
       </c>
-      <c r="W38" s="1" t="n">
+      <c r="X38" s="1" t="n">
         <v>22.5</v>
       </c>
-      <c r="X38" s="1" t="n">
+      <c r="Y38" s="1" t="n">
         <v>43.3</v>
       </c>
-      <c r="Y38" s="1" t="n">
+      <c r="Z38" s="1" t="n">
         <v>65.8</v>
       </c>
-      <c r="Z38" s="1" t="n">
+      <c r="AA38" s="1" t="n">
         <v>13.4</v>
       </c>
-      <c r="AA38" s="1" t="n">
+      <c r="AB38" s="1" t="n">
         <v>56.2</v>
       </c>
-      <c r="AB38" s="1" t="n">
+      <c r="AC38" s="1" t="n">
         <v>2130.2</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B39" s="1" t="n">
         <v>37</v>
@@ -3747,42 +3860,45 @@
         <v>14.5</v>
       </c>
       <c r="R39" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S39" s="1" t="n">
         <v>56.6</v>
       </c>
-      <c r="S39" s="1" t="n">
+      <c r="T39" s="1" t="n">
         <v>2115.7</v>
       </c>
-      <c r="T39" s="1" t="n">
+      <c r="U39" s="1" t="n">
         <v>34.8</v>
       </c>
-      <c r="U39" s="1" t="n">
+      <c r="V39" s="1" t="n">
         <v>1.4</v>
       </c>
-      <c r="V39" s="1" t="n">
+      <c r="W39" s="1" t="n">
         <v>15.8</v>
       </c>
-      <c r="W39" s="1" t="n">
+      <c r="X39" s="1" t="n">
         <v>21.8</v>
       </c>
-      <c r="X39" s="1" t="n">
+      <c r="Y39" s="1" t="n">
         <v>46.7</v>
       </c>
-      <c r="Y39" s="1" t="n">
+      <c r="Z39" s="1" t="n">
         <v>68.5</v>
       </c>
-      <c r="Z39" s="1" t="n">
+      <c r="AA39" s="1" t="n">
         <v>14.7</v>
       </c>
-      <c r="AA39" s="1" t="n">
+      <c r="AB39" s="1" t="n">
         <v>56.1</v>
       </c>
-      <c r="AB39" s="1" t="n">
+      <c r="AC39" s="1" t="n">
         <v>2119.4</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B40" s="1" t="n">
         <v>33</v>
@@ -3833,42 +3949,45 @@
         <v>14.8</v>
       </c>
       <c r="R40" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S40" s="1" t="n">
         <v>56.3</v>
       </c>
-      <c r="S40" s="1" t="n">
+      <c r="T40" s="1" t="n">
         <v>2242.5</v>
       </c>
-      <c r="T40" s="1" t="n">
+      <c r="U40" s="1" t="n">
         <v>31.3</v>
       </c>
-      <c r="U40" s="1" t="n">
+      <c r="V40" s="1" t="n">
         <v>1.1</v>
       </c>
-      <c r="V40" s="1" t="n">
+      <c r="W40" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="W40" s="1" t="n">
+      <c r="X40" s="1" t="n">
         <v>22.6</v>
       </c>
-      <c r="X40" s="1" t="n">
+      <c r="Y40" s="1" t="n">
         <v>43.1</v>
       </c>
-      <c r="Y40" s="1" t="n">
+      <c r="Z40" s="1" t="n">
         <v>65.7</v>
       </c>
-      <c r="Z40" s="1" t="n">
+      <c r="AA40" s="1" t="n">
         <v>14.8</v>
       </c>
-      <c r="AA40" s="1" t="n">
+      <c r="AB40" s="1" t="n">
         <v>55.9</v>
       </c>
-      <c r="AB40" s="1" t="n">
+      <c r="AC40" s="1" t="n">
         <v>2156.3</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B41" s="1" t="n">
         <v>37</v>
@@ -3919,42 +4038,45 @@
         <v>15.7</v>
       </c>
       <c r="R41" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S41" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="S41" s="1" t="n">
+      <c r="T41" s="1" t="n">
         <v>2120.8</v>
       </c>
-      <c r="T41" s="1" t="n">
+      <c r="U41" s="1" t="n">
         <v>34.3</v>
       </c>
-      <c r="U41" s="1" t="n">
+      <c r="V41" s="1" t="n">
         <v>1.3</v>
       </c>
-      <c r="V41" s="1" t="n">
+      <c r="W41" s="1" t="n">
         <v>17.3</v>
       </c>
-      <c r="W41" s="1" t="n">
+      <c r="X41" s="1" t="n">
         <v>21.2</v>
       </c>
-      <c r="X41" s="1" t="n">
+      <c r="Y41" s="1" t="n">
         <v>47.2</v>
       </c>
-      <c r="Y41" s="1" t="n">
+      <c r="Z41" s="1" t="n">
         <v>68.4</v>
       </c>
-      <c r="Z41" s="1" t="n">
+      <c r="AA41" s="1" t="n">
         <v>15.4</v>
       </c>
-      <c r="AA41" s="1" t="n">
+      <c r="AB41" s="1" t="n">
         <v>56.4</v>
       </c>
-      <c r="AB41" s="1" t="n">
+      <c r="AC41" s="1" t="n">
         <v>2148.5</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B42" s="1" t="n">
         <v>39</v>
@@ -4005,42 +4127,45 @@
         <v>14.4</v>
       </c>
       <c r="R42" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S42" s="1" t="n">
         <v>57.7</v>
       </c>
-      <c r="S42" s="1" t="n">
+      <c r="T42" s="1" t="n">
         <v>2120</v>
       </c>
-      <c r="T42" s="1" t="n">
+      <c r="U42" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="U42" s="1" t="n">
+      <c r="V42" s="1" t="n">
         <v>1.6</v>
       </c>
-      <c r="V42" s="1" t="n">
+      <c r="W42" s="1" t="n">
         <v>18.5</v>
       </c>
-      <c r="W42" s="1" t="n">
+      <c r="X42" s="1" t="n">
         <v>23.9</v>
       </c>
-      <c r="X42" s="1" t="n">
+      <c r="Y42" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="Y42" s="1" t="n">
+      <c r="Z42" s="1" t="n">
         <v>66.8</v>
       </c>
-      <c r="Z42" s="1" t="n">
+      <c r="AA42" s="1" t="n">
         <v>14.4</v>
       </c>
-      <c r="AA42" s="1" t="n">
+      <c r="AB42" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="AB42" s="1" t="n">
+      <c r="AC42" s="1" t="n">
         <v>2331</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B43" s="1" t="n">
         <v>25.5</v>
@@ -4091,44 +4216,47 @@
         <v>11.5</v>
       </c>
       <c r="R43" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S43" s="1" t="n">
         <v>56.3</v>
       </c>
-      <c r="S43" s="1" t="n">
+      <c r="T43" s="1" t="n">
         <v>2172.4</v>
       </c>
-      <c r="T43" s="1" t="n">
+      <c r="U43" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="U43" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="V43" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="W43" s="1" t="n">
         <v>20.5</v>
       </c>
-      <c r="W43" s="1" t="n">
+      <c r="X43" s="1" t="n">
         <v>23.5</v>
       </c>
-      <c r="X43" s="1" t="n">
+      <c r="Y43" s="1" t="n">
         <v>38.9</v>
       </c>
-      <c r="Y43" s="1" t="n">
+      <c r="Z43" s="1" t="n">
         <v>62.4</v>
       </c>
-      <c r="Z43" s="1" t="n">
+      <c r="AA43" s="1" t="n">
         <v>11.2</v>
       </c>
-      <c r="AA43" s="1" t="n">
+      <c r="AB43" s="1" t="n">
         <v>55.7</v>
       </c>
-      <c r="AB43" s="1" t="n">
+      <c r="AC43" s="1" t="n">
         <v>2258.2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B2:J2"/>
-    <mergeCell ref="K2:S2"/>
-    <mergeCell ref="T2:AB2"/>
+    <mergeCell ref="K2:T2"/>
+    <mergeCell ref="U2:AC2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
